--- a/period_terms/term_to_period_mapping.xlsx
+++ b/period_terms/term_to_period_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moglu\Documents\GitHub\free_text_period_graph\period_terms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3315220B-D9C0-451E-92E8-D5D4DAFFF2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E64F3AD-2BC4-400F-A83A-70050F7970D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7644,8 +7644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L2376"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1200" workbookViewId="0">
-      <selection activeCell="K1227" sqref="K1227"/>
+    <sheetView tabSelected="1" topLeftCell="A2312" workbookViewId="0">
+      <selection activeCell="C2343" sqref="C2343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -96474,7 +96474,7 @@
         <v>2345</v>
       </c>
       <c r="B2338" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2338" s="1">
         <v>1</v>

--- a/period_terms/term_to_period_mapping.xlsx
+++ b/period_terms/term_to_period_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moglu\Documents\GitHub\free_text_period_graph\period_terms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E64F3AD-2BC4-400F-A83A-70050F7970D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7249927A-89D3-474E-A1F2-42E08646B88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7644,8 +7644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L2376"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2312" workbookViewId="0">
-      <selection activeCell="C2343" sqref="C2343"/>
+    <sheetView tabSelected="1" topLeftCell="A2279" workbookViewId="0">
+      <selection activeCell="J2313" sqref="J2313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12483,10 +12483,10 @@
         <v>0</v>
       </c>
       <c r="K127" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L127" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
@@ -12968,19 +12968,19 @@
         <v>0</v>
       </c>
       <c r="H140" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K140" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L140" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
@@ -18823,16 +18823,16 @@
         <v>0</v>
       </c>
       <c r="I294" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J294" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K294" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L294" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.25">
@@ -35090,7 +35090,7 @@
         <v>0</v>
       </c>
       <c r="J722" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K722" s="1">
         <v>1</v>
@@ -80339,16 +80339,16 @@
         <v>0</v>
       </c>
       <c r="G1913" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1913" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1913" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1913" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1913" s="1">
         <v>1</v>
@@ -82970,13 +82970,13 @@
         <v>0</v>
       </c>
       <c r="J1982" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1982" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L1982" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1983" spans="1:12" x14ac:dyDescent="0.25">
@@ -86545,10 +86545,10 @@
         <v>0</v>
       </c>
       <c r="K2076" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2076" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2077" spans="1:12" x14ac:dyDescent="0.25">
@@ -92055,10 +92055,10 @@
         <v>0</v>
       </c>
       <c r="K2221" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2221" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2222" spans="1:12" x14ac:dyDescent="0.25">
@@ -93949,13 +93949,13 @@
         <v>0</v>
       </c>
       <c r="I2271" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2271" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2271" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2271" s="1">
         <v>0</v>
@@ -93987,13 +93987,13 @@
         <v>0</v>
       </c>
       <c r="I2272" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2272" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2272" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2272" s="1">
         <v>0</v>
@@ -94025,13 +94025,13 @@
         <v>0</v>
       </c>
       <c r="I2273" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2273" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2273" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2273" s="1">
         <v>0</v>
@@ -95551,10 +95551,10 @@
         <v>0</v>
       </c>
       <c r="K2313" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2313" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2314" spans="1:12" x14ac:dyDescent="0.25">
@@ -95589,10 +95589,10 @@
         <v>0</v>
       </c>
       <c r="K2314" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2314" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2315" spans="1:12" x14ac:dyDescent="0.25">

--- a/period_terms/term_to_period_mapping.xlsx
+++ b/period_terms/term_to_period_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moglu\Documents\GitHub\free_text_period_graph\period_terms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7249927A-89D3-474E-A1F2-42E08646B88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993DB715-68CA-4A11-927E-1BC8B11D6647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7091,9 +7091,6 @@
     <t>IRON AGE</t>
   </si>
   <si>
-    <t>DALRIADA(N)?</t>
-  </si>
-  <si>
     <t>NORSE</t>
   </si>
   <si>
@@ -7196,12 +7193,6 @@
     <t>4300 BC - 2500 BC</t>
   </si>
   <si>
-    <t>2500 BC - 800 AD</t>
-  </si>
-  <si>
-    <t>800 BD - AD 500</t>
-  </si>
-  <si>
     <t>400 AD 1000 AD</t>
   </si>
   <si>
@@ -7227,6 +7218,15 @@
   </si>
   <si>
     <t>LONG HOUSE</t>
+  </si>
+  <si>
+    <t>DAL RIADA(N)?</t>
+  </si>
+  <si>
+    <t>2500 BC - 800 BC</t>
+  </si>
+  <si>
+    <t>800 BC - AD 400</t>
   </si>
 </sst>
 </file>
@@ -7644,8 +7644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L2376"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2279" workbookViewId="0">
-      <selection activeCell="J2313" sqref="J2313"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7703,40 +7703,40 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2391</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2390</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2383</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2384</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>2395</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2394</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2393</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2384</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>2396</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>2385</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>2386</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>2387</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>2388</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>2389</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>2390</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>2391</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>2392</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -9071,7 +9071,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="B38" s="1">
         <v>0</v>
@@ -54139,7 +54139,7 @@
     </row>
     <row r="1224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1224" t="s">
-        <v>2396</v>
+        <v>2393</v>
       </c>
       <c r="B1224" s="1">
         <v>0</v>
@@ -96699,7 +96699,7 @@
     </row>
     <row r="2344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2344" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="B2344" s="1">
         <v>0</v>
@@ -96737,7 +96737,7 @@
     </row>
     <row r="2345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2345" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="B2345" s="1">
         <v>0</v>
@@ -96775,7 +96775,7 @@
     </row>
     <row r="2346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2346" t="s">
-        <v>2351</v>
+        <v>2394</v>
       </c>
       <c r="B2346" s="1">
         <v>0</v>
@@ -96813,7 +96813,7 @@
     </row>
     <row r="2347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2347" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="B2347" s="1">
         <v>0</v>
@@ -96851,7 +96851,7 @@
     </row>
     <row r="2348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2348" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="B2348" s="1">
         <v>0</v>
@@ -96889,7 +96889,7 @@
     </row>
     <row r="2349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2349" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="B2349" s="1">
         <v>0</v>
@@ -96927,7 +96927,7 @@
     </row>
     <row r="2350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2350" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="B2350" s="1">
         <v>0</v>
@@ -96965,7 +96965,7 @@
     </row>
     <row r="2351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2351" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="B2351" s="1">
         <v>0</v>
@@ -97003,7 +97003,7 @@
     </row>
     <row r="2352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2352" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="B2352" s="1">
         <v>0</v>
@@ -97041,7 +97041,7 @@
     </row>
     <row r="2353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2353" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="B2353" s="1">
         <v>0</v>
@@ -97079,7 +97079,7 @@
     </row>
     <row r="2354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2354" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="B2354" s="1">
         <v>0</v>
@@ -97117,7 +97117,7 @@
     </row>
     <row r="2355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2355" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="B2355" s="1">
         <v>0</v>
@@ -97155,7 +97155,7 @@
     </row>
     <row r="2356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2356" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="B2356" s="1">
         <v>0</v>
@@ -97193,7 +97193,7 @@
     </row>
     <row r="2357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2357" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="B2357" s="1">
         <v>0</v>
@@ -97269,7 +97269,7 @@
     </row>
     <row r="2359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2359" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="B2359" s="1">
         <v>0</v>
@@ -97307,7 +97307,7 @@
     </row>
     <row r="2360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2360" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="B2360" s="1">
         <v>0</v>
@@ -97345,7 +97345,7 @@
     </row>
     <row r="2361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2361" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="B2361" s="1">
         <v>0</v>
@@ -97383,7 +97383,7 @@
     </row>
     <row r="2362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2362" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="B2362" s="1">
         <v>0</v>
@@ -97421,7 +97421,7 @@
     </row>
     <row r="2363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2363" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="B2363" s="1">
         <v>0</v>
@@ -97459,7 +97459,7 @@
     </row>
     <row r="2364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2364" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="B2364" s="1">
         <v>0</v>
@@ -97497,7 +97497,7 @@
     </row>
     <row r="2365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2365" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="B2365" s="1">
         <v>0</v>
@@ -97535,7 +97535,7 @@
     </row>
     <row r="2366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2366" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="B2366" s="1">
         <v>0</v>
@@ -97573,7 +97573,7 @@
     </row>
     <row r="2367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2367" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="B2367" s="1">
         <v>0</v>
@@ -97611,7 +97611,7 @@
     </row>
     <row r="2368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2368" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="B2368" s="1">
         <v>0</v>
@@ -97649,7 +97649,7 @@
     </row>
     <row r="2369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2369" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="B2369" s="1">
         <v>0</v>
@@ -97687,7 +97687,7 @@
     </row>
     <row r="2370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2370" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="B2370" s="1">
         <v>0</v>
@@ -97725,7 +97725,7 @@
     </row>
     <row r="2371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2371" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="B2371" s="1">
         <v>0</v>
@@ -97763,7 +97763,7 @@
     </row>
     <row r="2372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2372" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="B2372" s="1">
         <v>0</v>
@@ -97801,7 +97801,7 @@
     </row>
     <row r="2373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2373" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="B2373" s="1">
         <v>0</v>
@@ -97839,7 +97839,7 @@
     </row>
     <row r="2374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2374" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="B2374" s="1">
         <v>0</v>
@@ -97877,7 +97877,7 @@
     </row>
     <row r="2375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2375" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="B2375" s="1">
         <v>0</v>
@@ -97915,7 +97915,7 @@
     </row>
     <row r="2376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2376" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="B2376" s="1">
         <v>0</v>
